--- a/biology/Botanique/Pezizomycotina/Pezizomycotina.xlsx
+++ b/biology/Botanique/Pezizomycotina/Pezizomycotina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pezizomycotina (anciennement nommés euascomycètes) sont une sous-division de champignons ascomycètes. Ce groupe comporte environ 90 % des ascomycètes connus, avec plusieurs dizaines de milliers d'espèces décrites ; tous sont filamenteux (formés d'hyphes).
 Les modes de vie et les habitats de ces champignons sont très variés : certains sont saprophytes, d'autres vivent en association avec des algues pour former les lichens, quelques-uns sont ectomycorhiziens, de nombreux autres parasites ou symbiotes de plantes ou d'animaux.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycéliums sont formés d'hyphes septés. Les pores simples sont régulés par des corps de Woronin. Les mycéliums sont en général haploïdes, le stade dikaryon n'apparaissant qu'immédiatement avant la fusion sexuelle.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe est subdivisé en onze classes[2],[3], et trois ordres ont un placement non encore déterminé :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe est subdivisé en onze classes et trois ordres ont un placement non encore déterminé :
 classe Arthoniomycetes
 classe Dothideomycetes
 classe Eurotiomycetes
@@ -574,8 +590,43 @@
 			Morchella conica (Pezizomycetes)
 			Cordyceps militaris (Sordariomycetes)
 			Xylona heveae (Xylonomycetes)
-Phylogramme
-Relations phylogéniques dans les Pezizomycotina, Selon Outline of Ascomycota — 2009[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pezizomycotina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pezizomycotina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogramme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relations phylogéniques dans les Pezizomycotina, Selon Outline of Ascomycota — 2009 :
 </t>
         </is>
       </c>
